--- a/RS_Session_259_AU_994_A_to_G_i.xlsx
+++ b/RS_Session_259_AU_994_A_to_G_i.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sujee\Downloads\Analytics-Dashboard-on-Statewise-arrests-for-Child-Pornography-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geraltofrivia/Documents/MBA BA IIFT/Semester 3/Time Series/MyProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB88B4C-29A6-4FA5-9330-1F318057DA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF564A-031A-7D42-9D86-A5FD9DF37887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS_Session_259_AU_994_A_to_G_i" sheetId="1" r:id="rId1"/>
@@ -124,15 +124,9 @@
     <t>West Bengal</t>
   </si>
   <si>
-    <t>Andaman and Nicobar Islands</t>
-  </si>
-  <si>
     <t>Chandigarh</t>
   </si>
   <si>
-    <t>Dadra and Nagar Haveli and Daman and Diu</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
@@ -152,12 +146,18 @@
   </si>
   <si>
     <t>Total (All India)</t>
+  </si>
+  <si>
+    <t>D&amp;N and D&amp;D</t>
+  </si>
+  <si>
+    <t>A&amp;N Island</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,16 +1011,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1600,9 +1604,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1620,9 +1624,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1640,9 +1644,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1660,9 +1664,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1680,9 +1684,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1700,69 +1704,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>43</v>
       </c>
       <c r="B38">
         <v>5955</v>
